--- a/natmiOut/OldD7/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Ccl2-Cxcr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,185 +522,495 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>23.9962358646221</v>
+        <v>13.34512433333333</v>
       </c>
       <c r="H2">
-        <v>23.9962358646221</v>
+        <v>40.035373</v>
       </c>
       <c r="I2">
-        <v>0.3951706877775529</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="J2">
-        <v>0.3951706877775529</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.15579672764035</v>
+        <v>0.05194133333333333</v>
       </c>
       <c r="N2">
-        <v>1.15579672764035</v>
+        <v>0.155824</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03788844568234288</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.03788844568234288</v>
       </c>
       <c r="Q2">
-        <v>27.73477088801623</v>
+        <v>0.6931635513724445</v>
       </c>
       <c r="R2">
-        <v>27.73477088801623</v>
+        <v>6.238471962352</v>
       </c>
       <c r="S2">
-        <v>0.3951706877775529</v>
+        <v>0.0060543122463132</v>
       </c>
       <c r="T2">
-        <v>0.3951706877775529</v>
+        <v>0.006054312246313201</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>34.619235809332</v>
+        <v>13.34512433333333</v>
       </c>
       <c r="H3">
-        <v>34.619235809332</v>
+        <v>40.035373</v>
       </c>
       <c r="I3">
-        <v>0.5701105499332222</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="J3">
-        <v>0.5701105499332222</v>
+        <v>0.1597931014925399</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.15579672764035</v>
+        <v>1.318960333333333</v>
       </c>
       <c r="N3">
-        <v>1.15579672764035</v>
+        <v>3.956881</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.962111554317657</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9621115543176572</v>
       </c>
       <c r="Q3">
-        <v>40.01279946183555</v>
+        <v>17.60168963906811</v>
       </c>
       <c r="R3">
-        <v>40.01279946183555</v>
+        <v>158.415206751613</v>
       </c>
       <c r="S3">
-        <v>0.5701105499332222</v>
+        <v>0.1537387892462267</v>
       </c>
       <c r="T3">
-        <v>0.5701105499332222</v>
+        <v>0.1537387892462267</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.10825254652735</v>
+        <v>26.15942766666667</v>
       </c>
       <c r="H4">
-        <v>2.10825254652735</v>
+        <v>78.478283</v>
       </c>
       <c r="I4">
-        <v>0.034718762289225</v>
+        <v>0.3132302087051685</v>
       </c>
       <c r="J4">
-        <v>0.034718762289225</v>
+        <v>0.3132302087051685</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.15579672764035</v>
+        <v>0.05194133333333333</v>
       </c>
       <c r="N4">
-        <v>1.15579672764035</v>
+        <v>0.155824</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.03788844568234288</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.03788844568234288</v>
       </c>
       <c r="Q4">
-        <v>2.436711394315746</v>
+        <v>1.358755552243556</v>
       </c>
       <c r="R4">
-        <v>2.436711394315746</v>
+        <v>12.228799970192</v>
       </c>
       <c r="S4">
-        <v>0.034718762289225</v>
+        <v>0.0118678057485947</v>
       </c>
       <c r="T4">
-        <v>0.034718762289225</v>
+        <v>0.0118678057485947</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>26.15942766666667</v>
+      </c>
+      <c r="H5">
+        <v>78.478283</v>
+      </c>
+      <c r="I5">
+        <v>0.3132302087051685</v>
+      </c>
+      <c r="J5">
+        <v>0.3132302087051685</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.318960333333333</v>
+      </c>
+      <c r="N5">
+        <v>3.956881</v>
+      </c>
+      <c r="O5">
+        <v>0.962111554317657</v>
+      </c>
+      <c r="P5">
+        <v>0.9621115543176572</v>
+      </c>
+      <c r="Q5">
+        <v>34.50324743503589</v>
+      </c>
+      <c r="R5">
+        <v>310.529226915323</v>
+      </c>
+      <c r="S5">
+        <v>0.3013624029565738</v>
+      </c>
+      <c r="T5">
+        <v>0.3013624029565738</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>40.356388</v>
+      </c>
+      <c r="H6">
+        <v>121.069164</v>
+      </c>
+      <c r="I6">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="J6">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.05194133333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.155824</v>
+      </c>
+      <c r="O6">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="P6">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="Q6">
+        <v>2.096164601237334</v>
+      </c>
+      <c r="R6">
+        <v>18.865481411136</v>
+      </c>
+      <c r="S6">
+        <v>0.01830857232817841</v>
+      </c>
+      <c r="T6">
+        <v>0.01830857232817841</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>40.356388</v>
+      </c>
+      <c r="H7">
+        <v>121.069164</v>
+      </c>
+      <c r="I7">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="J7">
+        <v>0.4832231039952832</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.318960333333333</v>
+      </c>
+      <c r="N7">
+        <v>3.956881</v>
+      </c>
+      <c r="O7">
+        <v>0.962111554317657</v>
+      </c>
+      <c r="P7">
+        <v>0.9621115543176572</v>
+      </c>
+      <c r="Q7">
+        <v>53.22847496860933</v>
+      </c>
+      <c r="R7">
+        <v>479.056274717484</v>
+      </c>
+      <c r="S7">
+        <v>0.4649145316671048</v>
+      </c>
+      <c r="T7">
+        <v>0.4649145316671048</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.654081666666666</v>
+      </c>
+      <c r="H8">
+        <v>10.962245</v>
+      </c>
+      <c r="I8">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="J8">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05194133333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.155824</v>
+      </c>
+      <c r="O8">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="P8">
+        <v>0.03788844568234288</v>
+      </c>
+      <c r="Q8">
+        <v>0.1897978738755556</v>
+      </c>
+      <c r="R8">
+        <v>1.70818086488</v>
+      </c>
+      <c r="S8">
+        <v>0.001657755359256567</v>
+      </c>
+      <c r="T8">
+        <v>0.001657755359256567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>3.654081666666666</v>
+      </c>
+      <c r="H9">
+        <v>10.962245</v>
+      </c>
+      <c r="I9">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="J9">
+        <v>0.04375358580700841</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.318960333333333</v>
+      </c>
+      <c r="N9">
+        <v>3.956881</v>
+      </c>
+      <c r="O9">
+        <v>0.962111554317657</v>
+      </c>
+      <c r="P9">
+        <v>0.9621115543176572</v>
+      </c>
+      <c r="Q9">
+        <v>4.819588773093889</v>
+      </c>
+      <c r="R9">
+        <v>43.376298957845</v>
+      </c>
+      <c r="S9">
+        <v>0.04209583044775184</v>
+      </c>
+      <c r="T9">
+        <v>0.04209583044775184</v>
       </c>
     </row>
   </sheetData>
